--- a/Week 2/SE1606_SWP391_Online Shop_Weekly Report_W2.xlsx
+++ b/Week 2/SE1606_SWP391_Online Shop_Weekly Report_W2.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1932" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Wx" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -76,70 +75,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Pending: just planned, have not started implementing yet
-In Progress: planned and doing, but have not completed yet
-Completed: planned and completed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Pending: issue occurred, no solution yet
-In Progress: occurred and handling issue
-Completed: occurred and handled issue</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -265,33 +202,6 @@
   </si>
   <si>
     <t>All Member</t>
-  </si>
-  <si>
-    <t>&lt;16/5/2022-22/5/2022&gt;</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>User login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add forgot password </t>
-  </si>
-  <si>
-    <t>24/5/2022</t>
-  </si>
-  <si>
-    <t>Before 00:00 24/5/2022</t>
-  </si>
-  <si>
-    <t>Add Cart</t>
-  </si>
-  <si>
-    <t>26/5/2022</t>
-  </si>
-  <si>
-    <t>User registered</t>
   </si>
 </sst>
 </file>
@@ -705,26 +615,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="6.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -732,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -740,12 +650,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -759,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -773,7 +683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -785,7 +695,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -793,12 +703,12 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -812,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -824,7 +734,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -836,7 +746,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -848,7 +758,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -860,7 +770,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -872,7 +782,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -884,7 +794,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -896,12 +806,12 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -915,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -923,7 +833,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -931,7 +841,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -939,12 +849,12 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -958,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
@@ -970,23 +880,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1000,379 +910,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C22:C24">
-      <formula1>"Pending, In Progress, Completed"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>

--- a/Week 2/SE1606_SWP391_Online Shop_Weekly Report_W2.xlsx
+++ b/Week 2/SE1606_SWP391_Online Shop_Weekly Report_W2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB838C6A-0499-439A-B96E-A1707424E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1020" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wx" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -102,9 +103,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>II. Team Contribution</t>
   </si>
   <si>
@@ -150,9 +148,6 @@
     <t>&lt;Team 1&gt;</t>
   </si>
   <si>
-    <t>&lt;9/5/2022-15/5/2022&gt;</t>
-  </si>
-  <si>
     <t>ThachDP</t>
   </si>
   <si>
@@ -162,15 +157,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Font-end</t>
-  </si>
-  <si>
-    <t>Back-end</t>
-  </si>
-  <si>
-    <t>Docs</t>
-  </si>
-  <si>
     <t>VoNVA</t>
   </si>
   <si>
@@ -186,29 +172,95 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Screen registration</t>
-  </si>
-  <si>
     <t>Create group on Github</t>
   </si>
   <si>
-    <t>18/5/2022</t>
-  </si>
-  <si>
-    <t>Before 00:00 19/5/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements </t>
-  </si>
-  <si>
     <t>All Member</t>
+  </si>
+  <si>
+    <t>Font-end + Back-end</t>
+  </si>
+  <si>
+    <t>Requirements - Docs</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>không nhận Boostrap 5</t>
+  </si>
+  <si>
+    <t>Debug nhưng lỗi không thể hiển thị</t>
+  </si>
+  <si>
+    <t>Không insert được acc vào database</t>
+  </si>
+  <si>
+    <t>Lỗi connect với DB</t>
+  </si>
+  <si>
+    <t>Không push được lên github</t>
+  </si>
+  <si>
+    <t>Không merge được các nhánh trong github</t>
+  </si>
+  <si>
+    <t>sai link boostrap cdn</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lZTaQu0lNdI</t>
+  </si>
+  <si>
+    <t>tạo 1 clone file mới</t>
+  </si>
+  <si>
+    <t>Thêm đường dẫn jstl trong file jsp</t>
+  </si>
+  <si>
+    <t>Xóa table acc tạo lại</t>
+  </si>
+  <si>
+    <t>Debug theo từng bước</t>
+  </si>
+  <si>
+    <t>&lt;16/5/2022-22/5/2022&gt;</t>
+  </si>
+  <si>
+    <t>Hoàn thiện IT2</t>
+  </si>
+  <si>
+    <t>29/5/2022</t>
+  </si>
+  <si>
+    <t>Before 00:00 30/5/2022</t>
+  </si>
+  <si>
+    <t>21/05</t>
+  </si>
+  <si>
+    <t>20/05</t>
+  </si>
+  <si>
+    <t>19/05</t>
+  </si>
+  <si>
+    <t>18/05</t>
+  </si>
+  <si>
+    <t>17/05</t>
+  </si>
+  <si>
+    <t>https://github.com/ashwinmenon/onlineShopping</t>
+  </si>
+  <si>
+    <t>ashwinmenon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +306,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,10 +361,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,8 +378,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,6 +480,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -437,6 +532,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,90 +724,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -703,250 +815,320 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C22:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{B89250DB-06DE-446A-ACB2-093268183482}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{7ECEF320-FDBB-482B-971E-D66C8E08F413}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>